--- a/Defence2D/Game_Design/DataTable/SkillData.xlsx
+++ b/Defence2D/Game_Design/DataTable/SkillData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78a343869a8ef49c/사이드프로젝트/테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIDE_PROJECT\Defence2D\Game_Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="11_AD4D066CA252ABDACC1048764124708549B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C850AE57-A3F5-42B2-A280-FF65E34A84C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D112E8A0-6746-4E36-B552-91A887501ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,25 +1398,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SkiKing00001</t>
-  </si>
-  <si>
-    <t>SkiKnight001</t>
-  </si>
-  <si>
-    <t>SkiArcher001</t>
-  </si>
-  <si>
-    <t>SkiMagic0001</t>
-  </si>
-  <si>
-    <t>SkiHKnight01</t>
-  </si>
-  <si>
-    <t>SkiHArcher01</t>
-  </si>
-  <si>
-    <t>SkiHMagic001</t>
+    <t>Skill_K_King001</t>
+  </si>
+  <si>
+    <t>Skill_S_Knight001</t>
+  </si>
+  <si>
+    <t>Skill_S_Archer001</t>
+  </si>
+  <si>
+    <t>Skill_S_Magic001</t>
+  </si>
+  <si>
+    <t>Skill_H_Knight001</t>
+  </si>
+  <si>
+    <t>Skill_H_Archer001</t>
+  </si>
+  <si>
+    <t>Skill_H_Magic001</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1923,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
